--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26621"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="800" yWindow="0" windowWidth="24400" windowHeight="13680" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="131">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -326,7 +326,94 @@
     <t>constant</t>
   </si>
   <si>
-    <t>Road</t>
+    <t>fin</t>
+  </si>
+  <si>
+    <t>Don't scale 1981 to avoid reporting mistake in inventory</t>
+  </si>
+  <si>
+    <t>lux</t>
+  </si>
+  <si>
+    <t>Avoid imlied Nox EF dip 1986-1989</t>
+  </si>
+  <si>
+    <t>(Better match to inventory if don't use linear to 1 for hun, bgr, gbr ind/power)</t>
+  </si>
+  <si>
+    <t>aut</t>
+  </si>
+  <si>
+    <t>bel</t>
+  </si>
+  <si>
+    <t>che</t>
+  </si>
+  <si>
+    <t>cyp</t>
+  </si>
+  <si>
+    <t>cze</t>
+  </si>
+  <si>
+    <t>deu</t>
+  </si>
+  <si>
+    <t>dnk</t>
+  </si>
+  <si>
+    <t>esp</t>
+  </si>
+  <si>
+    <t>est</t>
+  </si>
+  <si>
+    <t>fra</t>
+  </si>
+  <si>
+    <t>gbr</t>
+  </si>
+  <si>
+    <t>geo</t>
+  </si>
+  <si>
+    <t>hrv</t>
+  </si>
+  <si>
+    <t>irl</t>
+  </si>
+  <si>
+    <t>isl</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>ltu</t>
+  </si>
+  <si>
+    <t>lva</t>
+  </si>
+  <si>
+    <t>nld</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>prt</t>
+  </si>
+  <si>
+    <t>rou</t>
+  </si>
+  <si>
+    <t>svk</t>
+  </si>
+  <si>
+    <t>swe</t>
   </si>
 </sst>
 </file>
@@ -382,8 +469,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="239">
+  <cellStyleXfs count="243">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -630,7 +721,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="239">
+  <cellStyles count="243">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -750,6 +841,8 @@
     <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -869,6 +962,8 @@
     <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1205,8 +1300,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2098,10 +2193,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89:XFD90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2111,7 +2206,7 @@
     <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2119,96 +2214,2159 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="C2" t="s">
-        <v>98</v>
+      <c r="C2">
+        <v>1970</v>
       </c>
       <c r="D2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="F2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" t="s">
-        <v>98</v>
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>1970</v>
       </c>
       <c r="D3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E3" t="s">
-        <v>100</v>
-      </c>
-      <c r="F3">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="F3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
       </c>
-      <c r="C4" t="s">
-        <v>98</v>
+      <c r="C4">
+        <v>1970</v>
       </c>
       <c r="D4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E4" t="s">
-        <v>100</v>
-      </c>
-      <c r="F4">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>99</v>
+      </c>
+      <c r="F4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5" t="s">
-        <v>98</v>
+      <c r="C5">
+        <v>1970</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
-      </c>
-      <c r="F5">
-        <v>1970</v>
+        <v>99</v>
+      </c>
+      <c r="F5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6">
+        <v>1970</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>99</v>
+      </c>
+      <c r="F6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C7">
+        <v>1970</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8">
+        <v>1970</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>1970</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10">
+        <v>1970</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>108</v>
+      </c>
+      <c r="B11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11">
+        <v>1970</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12">
+        <v>1970</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13">
+        <v>1970</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14">
+        <v>1970</v>
+      </c>
+      <c r="D14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
+      <c r="F14" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="B15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15">
+        <v>1970</v>
+      </c>
+      <c r="D15" t="s">
+        <v>98</v>
+      </c>
+      <c r="E15" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>1970</v>
+      </c>
+      <c r="D16" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>109</v>
+      </c>
+      <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17">
+        <v>1970</v>
+      </c>
+      <c r="D17" t="s">
+        <v>98</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>110</v>
+      </c>
+      <c r="B18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18">
+        <v>1990</v>
+      </c>
+      <c r="D18" t="s">
+        <v>98</v>
+      </c>
+      <c r="E18" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19">
+        <v>1990</v>
+      </c>
+      <c r="D19" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>1990</v>
+      </c>
+      <c r="D20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>1990</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>65</v>
+      </c>
+      <c r="C22">
+        <v>1970</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23">
+        <v>1970</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24">
+        <v>1970</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25">
+        <v>1970</v>
+      </c>
+      <c r="D25" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>112</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26">
+        <v>1970</v>
+      </c>
+      <c r="D26" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B27" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27">
+        <v>1970</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>1970</v>
+      </c>
+      <c r="D28" t="s">
+        <v>98</v>
+      </c>
+      <c r="E28" t="s">
+        <v>99</v>
+      </c>
+      <c r="F28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C29">
+        <v>1970</v>
+      </c>
+      <c r="D29" t="s">
+        <v>98</v>
+      </c>
+      <c r="E29" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>113</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30">
+        <v>1970</v>
+      </c>
+      <c r="D30" t="s">
+        <v>98</v>
+      </c>
+      <c r="E30" t="s">
+        <v>99</v>
+      </c>
+      <c r="F30" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>84</v>
+      </c>
+      <c r="C31">
+        <v>1970</v>
+      </c>
+      <c r="D31" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>113</v>
+      </c>
+      <c r="B32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <v>1970</v>
+      </c>
+      <c r="D32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>113</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>1970</v>
+      </c>
+      <c r="D33" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>114</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34">
+        <v>1970</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C35">
+        <v>1970</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>99</v>
+      </c>
+      <c r="F35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>114</v>
+      </c>
+      <c r="B36" t="s">
+        <v>56</v>
+      </c>
+      <c r="C36">
+        <v>1970</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>99</v>
+      </c>
+      <c r="F36" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" t="s">
+        <v>55</v>
+      </c>
+      <c r="C37">
+        <v>1970</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>101</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38">
+        <v>1970</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>99</v>
+      </c>
+      <c r="F38" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39">
+        <v>1970</v>
+      </c>
+      <c r="D39" t="s">
+        <v>98</v>
+      </c>
+      <c r="E39" t="s">
+        <v>99</v>
+      </c>
+      <c r="F39" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>101</v>
+      </c>
+      <c r="B40" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40">
+        <v>1970</v>
+      </c>
+      <c r="D40" t="s">
+        <v>98</v>
+      </c>
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41">
+        <v>1970</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>99</v>
+      </c>
+      <c r="F41" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42">
+        <v>1970</v>
+      </c>
+      <c r="D42" t="s">
+        <v>98</v>
+      </c>
+      <c r="E42" t="s">
+        <v>99</v>
+      </c>
+      <c r="F42" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43">
+        <v>1970</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44">
+        <v>1970</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45">
+        <v>1970</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>99</v>
+      </c>
+      <c r="F45" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46">
+        <v>1970</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>99</v>
+      </c>
+      <c r="F46" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47">
+        <v>1970</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" t="s">
+        <v>99</v>
+      </c>
+      <c r="F47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>117</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48">
+        <v>1970</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
+        <v>99</v>
+      </c>
+      <c r="F48" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>117</v>
+      </c>
+      <c r="B49" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49">
+        <v>1970</v>
+      </c>
+      <c r="D49" t="s">
+        <v>98</v>
+      </c>
+      <c r="E49" t="s">
+        <v>99</v>
+      </c>
+      <c r="F49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+      <c r="C50">
+        <v>1970</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>117</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51">
+        <v>1970</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52">
+        <v>1970</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>118</v>
+      </c>
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53">
+        <v>1970</v>
+      </c>
+      <c r="D53" t="s">
+        <v>98</v>
+      </c>
+      <c r="E53" t="s">
+        <v>99</v>
+      </c>
+      <c r="F53" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C54">
+        <v>1970</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>99</v>
+      </c>
+      <c r="F54" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" t="s">
+        <v>55</v>
+      </c>
+      <c r="C55">
+        <v>1970</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
+        <v>99</v>
+      </c>
+      <c r="F55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" t="s">
+        <v>65</v>
+      </c>
+      <c r="C56">
+        <v>1970</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
+        <v>99</v>
+      </c>
+      <c r="F56" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57" t="s">
+        <v>84</v>
+      </c>
+      <c r="C57">
+        <v>1970</v>
+      </c>
+      <c r="D57" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" t="s">
+        <v>99</v>
+      </c>
+      <c r="F57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="B58" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58">
+        <v>1970</v>
+      </c>
+      <c r="D58" t="s">
+        <v>98</v>
+      </c>
+      <c r="E58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59">
+        <v>1970</v>
+      </c>
+      <c r="D59" t="s">
+        <v>98</v>
+      </c>
+      <c r="E59" t="s">
+        <v>99</v>
+      </c>
+      <c r="F59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60">
+        <v>1970</v>
+      </c>
+      <c r="D60" t="s">
+        <v>98</v>
+      </c>
+      <c r="E60" t="s">
+        <v>99</v>
+      </c>
+      <c r="F60" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C61">
+        <v>1970</v>
+      </c>
+      <c r="D61" t="s">
+        <v>98</v>
+      </c>
+      <c r="E61" t="s">
+        <v>99</v>
+      </c>
+      <c r="F61" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62">
+        <v>1970</v>
+      </c>
+      <c r="D62" t="s">
+        <v>98</v>
+      </c>
+      <c r="E62" t="s">
+        <v>99</v>
+      </c>
+      <c r="F62" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>120</v>
+      </c>
+      <c r="B63" t="s">
+        <v>55</v>
+      </c>
+      <c r="C63">
+        <v>1970</v>
+      </c>
+      <c r="D63" t="s">
+        <v>98</v>
+      </c>
+      <c r="E63" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64">
+        <v>1970</v>
+      </c>
+      <c r="D64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E64" t="s">
+        <v>99</v>
+      </c>
+      <c r="F64" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" t="s">
+        <v>84</v>
+      </c>
+      <c r="C65">
+        <v>1970</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" t="s">
+        <v>99</v>
+      </c>
+      <c r="F65" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>121</v>
+      </c>
+      <c r="B66" t="s">
+        <v>56</v>
+      </c>
+      <c r="C66">
+        <v>1970</v>
+      </c>
+      <c r="D66" t="s">
+        <v>98</v>
+      </c>
+      <c r="E66" t="s">
+        <v>99</v>
+      </c>
+      <c r="F66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" t="s">
+        <v>55</v>
+      </c>
+      <c r="C67">
+        <v>1970</v>
+      </c>
+      <c r="D67" t="s">
+        <v>98</v>
+      </c>
+      <c r="E67" t="s">
+        <v>99</v>
+      </c>
+      <c r="F67" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>122</v>
+      </c>
+      <c r="B68" t="s">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <v>1970</v>
+      </c>
+      <c r="D68" t="s">
+        <v>98</v>
+      </c>
+      <c r="E68" t="s">
+        <v>99</v>
+      </c>
+      <c r="F68" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" t="s">
+        <v>84</v>
+      </c>
+      <c r="C69">
+        <v>1970</v>
+      </c>
+      <c r="D69" t="s">
+        <v>98</v>
+      </c>
+      <c r="E69" t="s">
+        <v>99</v>
+      </c>
+      <c r="F69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>122</v>
+      </c>
+      <c r="B70" t="s">
+        <v>56</v>
+      </c>
+      <c r="C70">
+        <v>1970</v>
+      </c>
+      <c r="D70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" t="s">
+        <v>99</v>
+      </c>
+      <c r="F70" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" t="s">
+        <v>55</v>
+      </c>
+      <c r="C71">
+        <v>1970</v>
+      </c>
+      <c r="D71" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" t="s">
+        <v>99</v>
+      </c>
+      <c r="F71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>103</v>
+      </c>
+      <c r="B72" t="s">
+        <v>65</v>
+      </c>
+      <c r="C72">
+        <v>1970</v>
+      </c>
+      <c r="D72" t="s">
+        <v>98</v>
+      </c>
+      <c r="E72" t="s">
+        <v>99</v>
+      </c>
+      <c r="F72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+      <c r="C73">
+        <v>1970</v>
+      </c>
+      <c r="D73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E73" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+      <c r="B74" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>1970</v>
+      </c>
+      <c r="D74" t="s">
+        <v>98</v>
+      </c>
+      <c r="E74" t="s">
+        <v>99</v>
+      </c>
+      <c r="F74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75" t="s">
+        <v>55</v>
+      </c>
+      <c r="C75">
+        <v>1970</v>
+      </c>
+      <c r="D75" t="s">
+        <v>98</v>
+      </c>
+      <c r="E75" t="s">
+        <v>99</v>
+      </c>
+      <c r="F75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>65</v>
+      </c>
+      <c r="C76">
+        <v>1970</v>
+      </c>
+      <c r="D76" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" t="s">
+        <v>99</v>
+      </c>
+      <c r="F76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>123</v>
+      </c>
+      <c r="B77" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77">
+        <v>1970</v>
+      </c>
+      <c r="D77" t="s">
+        <v>98</v>
+      </c>
+      <c r="E77" t="s">
+        <v>99</v>
+      </c>
+      <c r="F77" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>123</v>
+      </c>
+      <c r="B78" t="s">
+        <v>56</v>
+      </c>
+      <c r="C78">
+        <v>1970</v>
+      </c>
+      <c r="D78" t="s">
+        <v>98</v>
+      </c>
+      <c r="E78" t="s">
+        <v>99</v>
+      </c>
+      <c r="F78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>55</v>
+      </c>
+      <c r="C79">
+        <v>1970</v>
+      </c>
+      <c r="D79" t="s">
+        <v>98</v>
+      </c>
+      <c r="E79" t="s">
+        <v>99</v>
+      </c>
+      <c r="F79" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" t="s">
+        <v>65</v>
+      </c>
+      <c r="C80">
+        <v>1970</v>
+      </c>
+      <c r="D80" t="s">
+        <v>98</v>
+      </c>
+      <c r="E80" t="s">
+        <v>99</v>
+      </c>
+      <c r="F80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>84</v>
+      </c>
+      <c r="C81">
+        <v>1970</v>
+      </c>
+      <c r="D81" t="s">
+        <v>98</v>
+      </c>
+      <c r="E81" t="s">
+        <v>99</v>
+      </c>
+      <c r="F81" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82" t="s">
+        <v>56</v>
+      </c>
+      <c r="C82">
+        <v>1970</v>
+      </c>
+      <c r="D82" t="s">
+        <v>98</v>
+      </c>
+      <c r="E82" t="s">
+        <v>99</v>
+      </c>
+      <c r="F82" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83" t="s">
+        <v>55</v>
+      </c>
+      <c r="C83">
+        <v>1970</v>
+      </c>
+      <c r="D83" t="s">
+        <v>98</v>
+      </c>
+      <c r="E83" t="s">
+        <v>99</v>
+      </c>
+      <c r="F83" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>124</v>
+      </c>
+      <c r="B84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C84">
+        <v>1970</v>
+      </c>
+      <c r="D84" t="s">
+        <v>98</v>
+      </c>
+      <c r="E84" t="s">
+        <v>99</v>
+      </c>
+      <c r="F84" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>124</v>
+      </c>
+      <c r="B85" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>1970</v>
+      </c>
+      <c r="D85" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" t="s">
+        <v>99</v>
+      </c>
+      <c r="F85" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>124</v>
+      </c>
+      <c r="B86" t="s">
+        <v>56</v>
+      </c>
+      <c r="C86">
+        <v>1970</v>
+      </c>
+      <c r="D86" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" t="s">
+        <v>99</v>
+      </c>
+      <c r="F86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>124</v>
+      </c>
+      <c r="B87" t="s">
+        <v>55</v>
+      </c>
+      <c r="C87">
+        <v>1970</v>
+      </c>
+      <c r="D87" t="s">
+        <v>98</v>
+      </c>
+      <c r="E87" t="s">
+        <v>99</v>
+      </c>
+      <c r="F87" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>125</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88">
+        <v>1970</v>
+      </c>
+      <c r="D88" t="s">
+        <v>98</v>
+      </c>
+      <c r="E88" t="s">
+        <v>99</v>
+      </c>
+      <c r="F88" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
+      <c r="C89">
+        <v>1970</v>
+      </c>
+      <c r="D89" t="s">
+        <v>98</v>
+      </c>
+      <c r="E89" t="s">
+        <v>99</v>
+      </c>
+      <c r="F89" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
+      <c r="A90" t="s">
+        <v>126</v>
+      </c>
+      <c r="B90" t="s">
+        <v>84</v>
+      </c>
+      <c r="C90">
+        <v>1970</v>
+      </c>
+      <c r="D90" t="s">
+        <v>98</v>
+      </c>
+      <c r="E90" t="s">
+        <v>99</v>
+      </c>
+      <c r="F90" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
+      <c r="A91" t="s">
+        <v>126</v>
+      </c>
+      <c r="B91" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91">
+        <v>1970</v>
+      </c>
+      <c r="D91" t="s">
+        <v>98</v>
+      </c>
+      <c r="E91" t="s">
+        <v>99</v>
+      </c>
+      <c r="F91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>55</v>
+      </c>
+      <c r="C92">
+        <v>1970</v>
+      </c>
+      <c r="D92" t="s">
+        <v>98</v>
+      </c>
+      <c r="E92" t="s">
+        <v>99</v>
+      </c>
+      <c r="F92" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
+      <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" t="s">
+        <v>65</v>
+      </c>
+      <c r="C93">
+        <v>1970</v>
+      </c>
+      <c r="D93" t="s">
+        <v>98</v>
+      </c>
+      <c r="E93" t="s">
+        <v>99</v>
+      </c>
+      <c r="F93" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
+      <c r="A94" t="s">
+        <v>127</v>
+      </c>
+      <c r="B94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C94">
+        <v>1970</v>
+      </c>
+      <c r="D94" t="s">
+        <v>98</v>
+      </c>
+      <c r="E94" t="s">
+        <v>99</v>
+      </c>
+      <c r="F94" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
+      <c r="A95" t="s">
+        <v>127</v>
+      </c>
+      <c r="B95" t="s">
+        <v>56</v>
+      </c>
+      <c r="C95">
+        <v>1970</v>
+      </c>
+      <c r="D95" t="s">
+        <v>98</v>
+      </c>
+      <c r="E95" t="s">
+        <v>99</v>
+      </c>
+      <c r="F95" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
+      <c r="A96" t="s">
+        <v>127</v>
+      </c>
+      <c r="B96" t="s">
+        <v>55</v>
+      </c>
+      <c r="C96">
+        <v>1970</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" t="s">
+        <v>99</v>
+      </c>
+      <c r="F96" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
+      <c r="A97" t="s">
+        <v>128</v>
+      </c>
+      <c r="B97" t="s">
+        <v>65</v>
+      </c>
+      <c r="C97">
+        <v>1970</v>
+      </c>
+      <c r="D97" t="s">
+        <v>98</v>
+      </c>
+      <c r="E97" t="s">
+        <v>99</v>
+      </c>
+      <c r="F97" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" t="s">
+        <v>128</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98">
+        <v>1970</v>
+      </c>
+      <c r="D98" t="s">
+        <v>98</v>
+      </c>
+      <c r="E98" t="s">
+        <v>99</v>
+      </c>
+      <c r="F98" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
+      <c r="A99" t="s">
+        <v>128</v>
+      </c>
+      <c r="B99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99">
+        <v>1970</v>
+      </c>
+      <c r="D99" t="s">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>99</v>
+      </c>
+      <c r="F99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
+      <c r="A100" t="s">
+        <v>128</v>
+      </c>
+      <c r="B100" t="s">
+        <v>55</v>
+      </c>
+      <c r="C100">
+        <v>1970</v>
+      </c>
+      <c r="D100" t="s">
+        <v>98</v>
+      </c>
+      <c r="E100" t="s">
+        <v>99</v>
+      </c>
+      <c r="F100" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
+      <c r="A101" t="s">
+        <v>129</v>
+      </c>
+      <c r="B101" t="s">
+        <v>65</v>
+      </c>
+      <c r="C101">
+        <v>1970</v>
+      </c>
+      <c r="D101" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" t="s">
+        <v>99</v>
+      </c>
+      <c r="F101" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
+      <c r="A102" t="s">
+        <v>129</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102">
+        <v>1970</v>
+      </c>
+      <c r="D102" t="s">
+        <v>98</v>
+      </c>
+      <c r="E102" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
+      <c r="A103" t="s">
+        <v>129</v>
+      </c>
+      <c r="B103" t="s">
+        <v>56</v>
+      </c>
+      <c r="C103">
+        <v>1970</v>
+      </c>
+      <c r="D103" t="s">
+        <v>98</v>
+      </c>
+      <c r="E103" t="s">
+        <v>99</v>
+      </c>
+      <c r="F103" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" t="s">
+        <v>129</v>
+      </c>
+      <c r="B104" t="s">
+        <v>55</v>
+      </c>
+      <c r="C104">
+        <v>1970</v>
+      </c>
+      <c r="D104" t="s">
+        <v>98</v>
+      </c>
+      <c r="E104" t="s">
+        <v>99</v>
+      </c>
+      <c r="F104" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6">
+      <c r="A105" t="s">
+        <v>130</v>
+      </c>
+      <c r="B105" t="s">
+        <v>65</v>
+      </c>
+      <c r="C105">
+        <v>1970</v>
+      </c>
+      <c r="D105" t="s">
+        <v>98</v>
+      </c>
+      <c r="E105" t="s">
+        <v>99</v>
+      </c>
+      <c r="F105" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6">
+      <c r="A106" t="s">
+        <v>130</v>
+      </c>
+      <c r="B106" t="s">
+        <v>84</v>
+      </c>
+      <c r="C106">
+        <v>1970</v>
+      </c>
+      <c r="D106" t="s">
+        <v>98</v>
+      </c>
+      <c r="E106" t="s">
+        <v>99</v>
+      </c>
+      <c r="F106" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6">
+      <c r="A107" t="s">
+        <v>130</v>
+      </c>
+      <c r="B107" t="s">
+        <v>56</v>
+      </c>
+      <c r="C107">
+        <v>1970</v>
+      </c>
+      <c r="D107" t="s">
+        <v>98</v>
+      </c>
+      <c r="E107" t="s">
+        <v>99</v>
+      </c>
+      <c r="F107" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6">
+      <c r="A108" t="s">
+        <v>130</v>
+      </c>
+      <c r="B108" t="s">
+        <v>55</v>
+      </c>
+      <c r="C108">
+        <v>1970</v>
+      </c>
+      <c r="D108" t="s">
+        <v>98</v>
+      </c>
+      <c r="E108" t="s">
+        <v>99</v>
+      </c>
+      <c r="F108" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2224,15 +4382,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -2258,7 +4416,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>94</v>
       </c>
@@ -2282,6 +4440,64 @@
       </c>
       <c r="H2" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>1982</v>
+      </c>
+      <c r="G3">
+        <v>2020</v>
+      </c>
+      <c r="H3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>1990</v>
+      </c>
+      <c r="G4">
+        <v>2020</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="0" windowWidth="24400" windowHeight="13680" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="800" yWindow="0" windowWidth="24400" windowHeight="13680" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="130">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>2D_Degreasing-Cleaning</t>
-  </si>
-  <si>
-    <t>Shipping</t>
   </si>
   <si>
     <t>3I_Agriculture-other</t>
@@ -1300,8 +1297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1360,7 +1357,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -1501,7 +1498,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>58</v>
@@ -1529,10 +1526,10 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1541,7 +1538,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
@@ -1550,7 +1547,7 @@
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C24" t="s">
         <v>32</v>
@@ -1559,7 +1556,7 @@
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>33</v>
@@ -1567,7 +1564,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C26" t="s">
         <v>34</v>
@@ -1576,7 +1573,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
         <v>36</v>
@@ -1585,7 +1582,7 @@
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" t="s">
         <v>37</v>
@@ -1594,7 +1591,7 @@
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1603,7 +1600,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1612,7 +1609,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B31" t="s">
         <v>59</v>
@@ -1636,7 +1633,7 @@
         <v>59</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F33" s="2"/>
     </row>
@@ -1654,7 +1651,7 @@
         <v>59</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F35" s="2"/>
     </row>
@@ -1669,10 +1666,10 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B37" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1681,7 +1678,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -1693,9 +1690,6 @@
       <c r="A39" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
-        <v>61</v>
-      </c>
       <c r="C39" t="s">
         <v>23</v>
       </c>
@@ -1703,10 +1697,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C40" t="s">
         <v>26</v>
@@ -1715,10 +1709,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="B41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C41" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1731,10 +1725,10 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
@@ -1745,7 +1739,7 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
         <v>24</v>
@@ -1756,7 +1750,7 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
         <v>25</v>
@@ -1772,10 +1766,10 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>40</v>
@@ -1786,7 +1780,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="B48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C48" t="s">
         <v>41</v>
@@ -1797,10 +1791,10 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>42</v>
@@ -1811,10 +1805,10 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C50" t="s">
         <v>43</v>
@@ -1835,7 +1829,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C53" t="s">
         <v>38</v>
@@ -1845,10 +1839,10 @@
     </row>
     <row r="54" spans="1:6">
       <c r="B54" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
@@ -1863,7 +1857,7 @@
         <v>48</v>
       </c>
       <c r="B56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C56" t="s">
         <v>39</v>
@@ -1873,10 +1867,10 @@
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1884,10 +1878,10 @@
     <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1910,7 +1904,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -1922,7 +1916,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="2"/>
       <c r="E64" s="2"/>
@@ -1930,7 +1924,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C65" s="4"/>
       <c r="E65" s="2"/>
@@ -2195,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="A89" sqref="A89:XFD90"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2214,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2226,52 +2220,52 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>1970</v>
       </c>
       <c r="D2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3">
         <v>1970</v>
       </c>
       <c r="D3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>56</v>
@@ -2280,18 +2274,18 @@
         <v>1970</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
         <v>55</v>
@@ -2300,58 +2294,58 @@
         <v>1970</v>
       </c>
       <c r="D5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>1970</v>
       </c>
       <c r="D6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C7">
         <v>1970</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
         <v>56</v>
@@ -2360,18 +2354,18 @@
         <v>1970</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B9" t="s">
         <v>55</v>
@@ -2380,58 +2374,58 @@
         <v>1970</v>
       </c>
       <c r="D9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10">
         <v>1970</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>1970</v>
       </c>
       <c r="D11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F11" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s">
         <v>56</v>
@@ -2440,18 +2434,18 @@
         <v>1970</v>
       </c>
       <c r="D12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
         <v>55</v>
@@ -2460,58 +2454,58 @@
         <v>1970</v>
       </c>
       <c r="D13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C14">
         <v>1970</v>
       </c>
       <c r="D14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B15" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C15">
         <v>1970</v>
       </c>
       <c r="D15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F15" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
         <v>56</v>
@@ -2520,18 +2514,18 @@
         <v>1970</v>
       </c>
       <c r="D16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B17" t="s">
         <v>55</v>
@@ -2540,58 +2534,58 @@
         <v>1970</v>
       </c>
       <c r="D17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F17" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C18">
         <v>1990</v>
       </c>
       <c r="D18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C19">
         <v>1990</v>
       </c>
       <c r="D19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
@@ -2600,18 +2594,18 @@
         <v>1990</v>
       </c>
       <c r="D20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
@@ -2620,58 +2614,58 @@
         <v>1990</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22">
         <v>1970</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C23">
         <v>1970</v>
       </c>
       <c r="D23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F23" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
@@ -2680,18 +2674,18 @@
         <v>1970</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
@@ -2700,58 +2694,58 @@
         <v>1970</v>
       </c>
       <c r="D25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F25" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C26">
         <v>1970</v>
       </c>
       <c r="D26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C27">
         <v>1970</v>
       </c>
       <c r="D27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
@@ -2760,18 +2754,18 @@
         <v>1970</v>
       </c>
       <c r="D28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
@@ -2780,58 +2774,58 @@
         <v>1970</v>
       </c>
       <c r="D29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1970</v>
       </c>
       <c r="D30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B31" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C31">
         <v>1970</v>
       </c>
       <c r="D31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
@@ -2840,18 +2834,18 @@
         <v>1970</v>
       </c>
       <c r="D32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
@@ -2860,58 +2854,58 @@
         <v>1970</v>
       </c>
       <c r="D33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34">
         <v>1970</v>
       </c>
       <c r="D34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C35">
         <v>1970</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
@@ -2920,18 +2914,18 @@
         <v>1970</v>
       </c>
       <c r="D36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
@@ -2940,58 +2934,58 @@
         <v>1970</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F37" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>1970</v>
       </c>
       <c r="D38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C39">
         <v>1970</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F39" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
         <v>56</v>
@@ -3000,18 +2994,18 @@
         <v>1970</v>
       </c>
       <c r="D40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B41" t="s">
         <v>55</v>
@@ -3020,58 +3014,58 @@
         <v>1970</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F41" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42">
         <v>1970</v>
       </c>
       <c r="D42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C43">
         <v>1970</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F43" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B44" t="s">
         <v>56</v>
@@ -3080,18 +3074,18 @@
         <v>1970</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F44" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B45" t="s">
         <v>55</v>
@@ -3100,98 +3094,98 @@
         <v>1970</v>
       </c>
       <c r="D45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46">
         <v>1970</v>
       </c>
       <c r="D46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C47">
         <v>1970</v>
       </c>
       <c r="D47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F47" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48">
         <v>1970</v>
       </c>
       <c r="D48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F48" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49">
         <v>1970</v>
       </c>
       <c r="D49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F49" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
@@ -3200,18 +3194,18 @@
         <v>1970</v>
       </c>
       <c r="D50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F50" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
@@ -3220,58 +3214,58 @@
         <v>1970</v>
       </c>
       <c r="D51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C52">
         <v>1970</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F52" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C53">
         <v>1970</v>
       </c>
       <c r="D53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
@@ -3280,18 +3274,18 @@
         <v>1970</v>
       </c>
       <c r="D54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F54" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
@@ -3300,58 +3294,58 @@
         <v>1970</v>
       </c>
       <c r="D55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F55" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C56">
         <v>1970</v>
       </c>
       <c r="D56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57">
         <v>1970</v>
       </c>
       <c r="D57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
@@ -3360,18 +3354,18 @@
         <v>1970</v>
       </c>
       <c r="D58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F58" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
@@ -3380,58 +3374,58 @@
         <v>1970</v>
       </c>
       <c r="D59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C60">
         <v>1970</v>
       </c>
       <c r="D60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B61" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61">
         <v>1970</v>
       </c>
       <c r="D61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F61" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B62" t="s">
         <v>56</v>
@@ -3440,18 +3434,18 @@
         <v>1970</v>
       </c>
       <c r="D62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
         <v>55</v>
@@ -3460,58 +3454,58 @@
         <v>1970</v>
       </c>
       <c r="D63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F63" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C64">
         <v>1970</v>
       </c>
       <c r="D64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F64" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B65" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C65">
         <v>1970</v>
       </c>
       <c r="D65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F65" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B66" t="s">
         <v>56</v>
@@ -3520,18 +3514,18 @@
         <v>1970</v>
       </c>
       <c r="D66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F66" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B67" t="s">
         <v>55</v>
@@ -3540,58 +3534,58 @@
         <v>1970</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F67" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B68" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C68">
         <v>1970</v>
       </c>
       <c r="D68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B69" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C69">
         <v>1970</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E69" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F69" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
         <v>56</v>
@@ -3600,18 +3594,18 @@
         <v>1970</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F70" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B71" t="s">
         <v>55</v>
@@ -3620,58 +3614,58 @@
         <v>1970</v>
       </c>
       <c r="D71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F71" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B72" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C72">
         <v>1970</v>
       </c>
       <c r="D72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F72" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B73" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73">
         <v>1970</v>
       </c>
       <c r="D73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
         <v>56</v>
@@ -3680,18 +3674,18 @@
         <v>1970</v>
       </c>
       <c r="D74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F74" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B75" t="s">
         <v>55</v>
@@ -3700,58 +3694,58 @@
         <v>1970</v>
       </c>
       <c r="D75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F75" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B76" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C76">
         <v>1970</v>
       </c>
       <c r="D76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C77">
         <v>1970</v>
       </c>
       <c r="D77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F77" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B78" t="s">
         <v>56</v>
@@ -3760,18 +3754,18 @@
         <v>1970</v>
       </c>
       <c r="D78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
         <v>55</v>
@@ -3780,58 +3774,58 @@
         <v>1970</v>
       </c>
       <c r="D79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F79" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B80" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C80">
         <v>1970</v>
       </c>
       <c r="D80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C81">
         <v>1970</v>
       </c>
       <c r="D81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" t="s">
         <v>56</v>
@@ -3840,18 +3834,18 @@
         <v>1970</v>
       </c>
       <c r="D82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F82" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
         <v>55</v>
@@ -3860,58 +3854,58 @@
         <v>1970</v>
       </c>
       <c r="D83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F83" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B84" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C84">
         <v>1970</v>
       </c>
       <c r="D84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F84" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C85">
         <v>1970</v>
       </c>
       <c r="D85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B86" t="s">
         <v>56</v>
@@ -3920,18 +3914,18 @@
         <v>1970</v>
       </c>
       <c r="D86" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E86" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F86" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B87" t="s">
         <v>55</v>
@@ -3940,78 +3934,78 @@
         <v>1970</v>
       </c>
       <c r="D87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F87" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B88" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C88">
         <v>1970</v>
       </c>
       <c r="D88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F88" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B89" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C89">
         <v>1970</v>
       </c>
       <c r="D89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F89" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B90" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C90">
         <v>1970</v>
       </c>
       <c r="D90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F90" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B91" t="s">
         <v>56</v>
@@ -4020,18 +4014,18 @@
         <v>1970</v>
       </c>
       <c r="D91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F91" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B92" t="s">
         <v>55</v>
@@ -4040,58 +4034,58 @@
         <v>1970</v>
       </c>
       <c r="D92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F92" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B93" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C93">
         <v>1970</v>
       </c>
       <c r="D93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F93" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B94" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C94">
         <v>1970</v>
       </c>
       <c r="D94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="95" spans="1:6">
       <c r="A95" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B95" t="s">
         <v>56</v>
@@ -4100,18 +4094,18 @@
         <v>1970</v>
       </c>
       <c r="D95" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E95" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F95" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B96" t="s">
         <v>55</v>
@@ -4120,58 +4114,58 @@
         <v>1970</v>
       </c>
       <c r="D96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F96" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B97" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C97">
         <v>1970</v>
       </c>
       <c r="D97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F97" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B98" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C98">
         <v>1970</v>
       </c>
       <c r="D98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B99" t="s">
         <v>56</v>
@@ -4180,18 +4174,18 @@
         <v>1970</v>
       </c>
       <c r="D99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F99" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B100" t="s">
         <v>55</v>
@@ -4200,58 +4194,58 @@
         <v>1970</v>
       </c>
       <c r="D100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F100" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B101" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C101">
         <v>1970</v>
       </c>
       <c r="D101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F101" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B102" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C102">
         <v>1970</v>
       </c>
       <c r="D102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B103" t="s">
         <v>56</v>
@@ -4260,18 +4254,18 @@
         <v>1970</v>
       </c>
       <c r="D103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F103" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B104" t="s">
         <v>55</v>
@@ -4280,58 +4274,58 @@
         <v>1970</v>
       </c>
       <c r="D104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F104" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B105" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C105">
         <v>1970</v>
       </c>
       <c r="D105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F105" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C106">
         <v>1970</v>
       </c>
       <c r="D106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F106" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B107" t="s">
         <v>56</v>
@@ -4340,18 +4334,18 @@
         <v>1970</v>
       </c>
       <c r="D107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F107" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B108" t="s">
         <v>55</v>
@@ -4360,13 +4354,13 @@
         <v>1970</v>
       </c>
       <c r="D108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F108" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -4404,24 +4398,24 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" t="s">
         <v>90</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>91</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>92</v>
-      </c>
-      <c r="H1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" t="s">
         <v>94</v>
-      </c>
-      <c r="B2" t="s">
-        <v>95</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4439,15 +4433,15 @@
         <v>2010</v>
       </c>
       <c r="H2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4468,15 +4462,15 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -4497,7 +4491,7 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="0" windowWidth="24400" windowHeight="13680" tabRatio="500"/>
+    <workbookView xWindow="4180" yWindow="0" windowWidth="24400" windowHeight="13680" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="694" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="132">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -411,6 +411,12 @@
   </si>
   <si>
     <t>swe</t>
+  </si>
+  <si>
+    <t>svn</t>
+  </si>
+  <si>
+    <t>Don't scale prior to 1990 since we do not have consistent driver data at this level</t>
   </si>
 </sst>
 </file>
@@ -466,8 +472,54 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="243">
+  <cellStyleXfs count="289">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -718,7 +770,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="243">
+  <cellStyles count="289">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -840,6 +892,29 @@
     <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -961,6 +1036,29 @@
     <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1297,7 +1395,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
@@ -2187,10 +2285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G108"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70:C74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2271,7 +2369,7 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D4" t="s">
         <v>97</v>
@@ -2291,7 +2389,7 @@
         <v>55</v>
       </c>
       <c r="C5">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D5" t="s">
         <v>97</v>
@@ -2351,7 +2449,7 @@
         <v>56</v>
       </c>
       <c r="C8">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D8" t="s">
         <v>97</v>
@@ -2371,7 +2469,7 @@
         <v>55</v>
       </c>
       <c r="C9">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D9" t="s">
         <v>97</v>
@@ -2431,7 +2529,7 @@
         <v>56</v>
       </c>
       <c r="C12">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D12" t="s">
         <v>97</v>
@@ -2451,7 +2549,7 @@
         <v>55</v>
       </c>
       <c r="C13">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D13" t="s">
         <v>97</v>
@@ -2511,7 +2609,7 @@
         <v>56</v>
       </c>
       <c r="C16">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D16" t="s">
         <v>97</v>
@@ -2531,7 +2629,7 @@
         <v>55</v>
       </c>
       <c r="C17">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D17" t="s">
         <v>97</v>
@@ -2545,13 +2643,13 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B18" t="s">
         <v>64</v>
       </c>
       <c r="C18">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D18" t="s">
         <v>97</v>
@@ -2565,13 +2663,13 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>83</v>
       </c>
       <c r="C19">
-        <v>1990</v>
+        <v>1970</v>
       </c>
       <c r="D19" t="s">
         <v>97</v>
@@ -2585,13 +2683,13 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B20" t="s">
         <v>56</v>
       </c>
       <c r="C20">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D20" t="s">
         <v>97</v>
@@ -2605,13 +2703,13 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B21" t="s">
         <v>55</v>
       </c>
       <c r="C21">
-        <v>1990</v>
+        <v>1980</v>
       </c>
       <c r="D21" t="s">
         <v>97</v>
@@ -2625,7 +2723,7 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B22" t="s">
         <v>64</v>
@@ -2645,7 +2743,7 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
         <v>83</v>
@@ -2665,13 +2763,13 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B24" t="s">
         <v>56</v>
       </c>
       <c r="C24">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D24" t="s">
         <v>97</v>
@@ -2685,13 +2783,13 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B25" t="s">
         <v>55</v>
       </c>
       <c r="C25">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D25" t="s">
         <v>97</v>
@@ -2705,7 +2803,7 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B26" t="s">
         <v>64</v>
@@ -2725,7 +2823,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B27" t="s">
         <v>83</v>
@@ -2745,13 +2843,13 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B28" t="s">
         <v>56</v>
       </c>
       <c r="C28">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D28" t="s">
         <v>97</v>
@@ -2765,13 +2863,13 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B29" t="s">
         <v>55</v>
       </c>
       <c r="C29">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D29" t="s">
         <v>97</v>
@@ -2785,7 +2883,7 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
         <v>64</v>
@@ -2805,7 +2903,7 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
         <v>83</v>
@@ -2825,13 +2923,13 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B32" t="s">
         <v>56</v>
       </c>
       <c r="C32">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D32" t="s">
         <v>97</v>
@@ -2845,13 +2943,13 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B33" t="s">
         <v>55</v>
       </c>
       <c r="C33">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D33" t="s">
         <v>97</v>
@@ -2865,7 +2963,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
@@ -2885,7 +2983,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B35" t="s">
         <v>83</v>
@@ -2905,13 +3003,13 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B36" t="s">
         <v>56</v>
       </c>
       <c r="C36">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D36" t="s">
         <v>97</v>
@@ -2925,13 +3023,13 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
         <v>55</v>
       </c>
       <c r="C37">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D37" t="s">
         <v>97</v>
@@ -2945,7 +3043,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B38" t="s">
         <v>64</v>
@@ -2965,7 +3063,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="B39" t="s">
         <v>83</v>
@@ -2985,10 +3083,10 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C40">
         <v>1970</v>
@@ -3005,10 +3103,10 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C41">
         <v>1970</v>
@@ -3025,13 +3123,13 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C42">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D42" t="s">
         <v>97</v>
@@ -3045,13 +3143,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C43">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D43" t="s">
         <v>97</v>
@@ -3065,10 +3163,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C44">
         <v>1970</v>
@@ -3085,10 +3183,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C45">
         <v>1970</v>
@@ -3105,13 +3203,13 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C46">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D46" t="s">
         <v>97</v>
@@ -3125,13 +3223,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C47">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D47" t="s">
         <v>97</v>
@@ -3145,7 +3243,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B48" t="s">
         <v>64</v>
@@ -3165,7 +3263,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B49" t="s">
         <v>83</v>
@@ -3185,13 +3283,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B50" t="s">
         <v>56</v>
       </c>
       <c r="C50">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D50" t="s">
         <v>97</v>
@@ -3205,13 +3303,13 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B51" t="s">
         <v>55</v>
       </c>
       <c r="C51">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D51" t="s">
         <v>97</v>
@@ -3225,7 +3323,7 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B52" t="s">
         <v>64</v>
@@ -3245,7 +3343,7 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B53" t="s">
         <v>83</v>
@@ -3265,13 +3363,13 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
         <v>56</v>
       </c>
       <c r="C54">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D54" t="s">
         <v>97</v>
@@ -3285,13 +3383,13 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B55" t="s">
         <v>55</v>
       </c>
       <c r="C55">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D55" t="s">
         <v>97</v>
@@ -3305,7 +3403,7 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B56" t="s">
         <v>64</v>
@@ -3325,7 +3423,7 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B57" t="s">
         <v>83</v>
@@ -3345,13 +3443,13 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
         <v>56</v>
       </c>
       <c r="C58">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D58" t="s">
         <v>97</v>
@@ -3365,13 +3463,13 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B59" t="s">
         <v>55</v>
       </c>
       <c r="C59">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D59" t="s">
         <v>97</v>
@@ -3385,13 +3483,13 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C60">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D60" t="s">
         <v>97</v>
@@ -3405,10 +3503,10 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C61">
         <v>1970</v>
@@ -3425,10 +3523,10 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B62" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C62">
         <v>1970</v>
@@ -3445,13 +3543,13 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C63">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D63" t="s">
         <v>97</v>
@@ -3465,13 +3563,13 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C64">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D64" t="s">
         <v>97</v>
@@ -3485,10 +3583,10 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B65" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>1970</v>
@@ -3505,10 +3603,10 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B66" t="s">
-        <v>56</v>
+        <v>83</v>
       </c>
       <c r="C66">
         <v>1970</v>
@@ -3525,13 +3623,13 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="B67" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C67">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D67" t="s">
         <v>97</v>
@@ -3545,13 +3643,13 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B68" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C68">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D68" t="s">
         <v>97</v>
@@ -3560,38 +3658,18 @@
         <v>98</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
-      <c r="A69" t="s">
-        <v>121</v>
-      </c>
-      <c r="B69" t="s">
-        <v>83</v>
-      </c>
-      <c r="C69">
-        <v>1970</v>
-      </c>
-      <c r="D69" t="s">
-        <v>97</v>
-      </c>
-      <c r="E69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C70">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D70" t="s">
         <v>97</v>
@@ -3605,13 +3683,13 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C71">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D71" t="s">
         <v>97</v>
@@ -3625,13 +3703,13 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C72">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D72" t="s">
         <v>97</v>
@@ -3645,13 +3723,13 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B73" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C73">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D73" t="s">
         <v>97</v>
@@ -3665,13 +3743,13 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C74">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D74" t="s">
         <v>97</v>
@@ -3685,13 +3763,13 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C75">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D75" t="s">
         <v>97</v>
@@ -3705,13 +3783,13 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C76">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D76" t="s">
         <v>97</v>
@@ -3725,13 +3803,13 @@
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C77">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D77" t="s">
         <v>97</v>
@@ -3748,10 +3826,10 @@
         <v>122</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C78">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D78" t="s">
         <v>97</v>
@@ -3768,10 +3846,10 @@
         <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C79">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D79" t="s">
         <v>97</v>
@@ -3785,13 +3863,13 @@
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C80">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D80" t="s">
         <v>97</v>
@@ -3805,13 +3883,13 @@
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>122</v>
       </c>
       <c r="B81" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C81">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D81" t="s">
         <v>97</v>
@@ -3825,13 +3903,13 @@
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C82">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D82" t="s">
         <v>97</v>
@@ -3845,13 +3923,13 @@
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B83" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C83">
-        <v>1970</v>
+        <v>1980</v>
       </c>
       <c r="D83" t="s">
         <v>97</v>
@@ -3865,13 +3943,13 @@
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B84" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C84">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D84" t="s">
         <v>97</v>
@@ -3885,13 +3963,13 @@
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C85">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D85" t="s">
         <v>97</v>
@@ -3900,38 +3978,18 @@
         <v>98</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" t="s">
-        <v>123</v>
-      </c>
-      <c r="B86" t="s">
-        <v>56</v>
-      </c>
-      <c r="C86">
-        <v>1970</v>
-      </c>
-      <c r="D86" t="s">
-        <v>97</v>
-      </c>
-      <c r="E86" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B87" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C87">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D87" t="s">
         <v>97</v>
@@ -3945,13 +4003,13 @@
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B88" t="s">
         <v>83</v>
       </c>
       <c r="C88">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D88" t="s">
         <v>97</v>
@@ -3965,13 +4023,13 @@
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B89" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C89">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D89" t="s">
         <v>97</v>
@@ -3985,13 +4043,13 @@
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B90" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C90">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D90" t="s">
         <v>97</v>
@@ -4008,10 +4066,10 @@
         <v>125</v>
       </c>
       <c r="B91" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C91">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D91" t="s">
         <v>97</v>
@@ -4028,10 +4086,10 @@
         <v>125</v>
       </c>
       <c r="B92" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="C92">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D92" t="s">
         <v>97</v>
@@ -4045,13 +4103,13 @@
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B93" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="C93">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D93" t="s">
         <v>97</v>
@@ -4065,13 +4123,13 @@
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B94" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="C94">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D94" t="s">
         <v>97</v>
@@ -4080,38 +4138,18 @@
         <v>98</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
-      <c r="A95" t="s">
-        <v>126</v>
-      </c>
-      <c r="B95" t="s">
-        <v>56</v>
-      </c>
-      <c r="C95">
-        <v>1970</v>
-      </c>
-      <c r="D95" t="s">
-        <v>97</v>
-      </c>
-      <c r="E95" t="s">
-        <v>98</v>
-      </c>
-      <c r="F95" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="B96" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C96">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D96" t="s">
         <v>97</v>
@@ -4125,13 +4163,13 @@
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B97" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C97">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D97" t="s">
         <v>97</v>
@@ -4145,13 +4183,13 @@
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B98" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C98">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D98" t="s">
         <v>97</v>
@@ -4165,13 +4203,13 @@
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C99">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D99" t="s">
         <v>97</v>
@@ -4185,13 +4223,13 @@
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>127</v>
+        <v>109</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C100">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D100" t="s">
         <v>97</v>
@@ -4205,13 +4243,13 @@
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C101">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D101" t="s">
         <v>97</v>
@@ -4225,13 +4263,13 @@
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B102" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C102">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D102" t="s">
         <v>97</v>
@@ -4245,13 +4283,13 @@
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B103" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C103">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D103" t="s">
         <v>97</v>
@@ -4268,10 +4306,10 @@
         <v>128</v>
       </c>
       <c r="B104" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C104">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D104" t="s">
         <v>97</v>
@@ -4285,13 +4323,13 @@
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B105" t="s">
-        <v>64</v>
+        <v>83</v>
       </c>
       <c r="C105">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D105" t="s">
         <v>97</v>
@@ -4305,13 +4343,13 @@
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B106" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C106">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D106" t="s">
         <v>97</v>
@@ -4325,13 +4363,13 @@
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B107" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C107">
-        <v>1970</v>
+        <v>1990</v>
       </c>
       <c r="D107" t="s">
         <v>97</v>
@@ -4345,21 +4383,81 @@
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>129</v>
+        <v>93</v>
       </c>
       <c r="B108" t="s">
+        <v>64</v>
+      </c>
+      <c r="C108">
+        <v>1990</v>
+      </c>
+      <c r="D108" t="s">
+        <v>97</v>
+      </c>
+      <c r="E108" t="s">
+        <v>98</v>
+      </c>
+      <c r="F108" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6">
+      <c r="A109" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" t="s">
+        <v>83</v>
+      </c>
+      <c r="C109">
+        <v>1990</v>
+      </c>
+      <c r="D109" t="s">
+        <v>97</v>
+      </c>
+      <c r="E109" t="s">
+        <v>98</v>
+      </c>
+      <c r="F109" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6">
+      <c r="A110" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C110">
+        <v>1990</v>
+      </c>
+      <c r="D110" t="s">
+        <v>97</v>
+      </c>
+      <c r="E110" t="s">
+        <v>98</v>
+      </c>
+      <c r="F110" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6">
+      <c r="A111" t="s">
+        <v>93</v>
+      </c>
+      <c r="B111" t="s">
         <v>55</v>
       </c>
-      <c r="C108">
-        <v>1970</v>
-      </c>
-      <c r="D108" t="s">
-        <v>97</v>
-      </c>
-      <c r="E108" t="s">
-        <v>98</v>
-      </c>
-      <c r="F108" t="s">
+      <c r="C111">
+        <v>1990</v>
+      </c>
+      <c r="D111" t="s">
+        <v>97</v>
+      </c>
+      <c r="E111" t="s">
+        <v>98</v>
+      </c>
+      <c r="F111" t="s">
         <v>99</v>
       </c>
     </row>
@@ -4376,10 +4474,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4430,7 +4528,7 @@
         <v>1990</v>
       </c>
       <c r="G2">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="H2" t="s">
         <v>95</v>
@@ -4492,6 +4590,32 @@
       </c>
       <c r="I4" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>130</v>
+      </c>
+      <c r="B5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1990</v>
+      </c>
+      <c r="G5">
+        <v>2020</v>
+      </c>
+      <c r="H5" t="s">
+        <v>131</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="4180" yWindow="0" windowWidth="24400" windowHeight="13680" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -2287,8 +2287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70:C74"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2849,10 +2849,10 @@
         <v>56</v>
       </c>
       <c r="C28">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D28" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E28" t="s">
         <v>98</v>
@@ -2869,10 +2869,10 @@
         <v>55</v>
       </c>
       <c r="C29">
-        <v>1980</v>
+        <v>1990</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E29" t="s">
         <v>98</v>
@@ -4192,7 +4192,7 @@
         <v>1990</v>
       </c>
       <c r="D98" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E98" t="s">
         <v>98</v>
@@ -4212,7 +4212,7 @@
         <v>1990</v>
       </c>
       <c r="D99" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E99" t="s">
         <v>98</v>
@@ -4432,7 +4432,7 @@
         <v>1990</v>
       </c>
       <c r="D110" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E110" t="s">
         <v>98</v>
@@ -4452,7 +4452,7 @@
         <v>1990</v>
       </c>
       <c r="D111" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E111" t="s">
         <v>98</v>
@@ -4476,7 +4476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26819"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>1A3c_Rail</t>
   </si>
   <si>
-    <t>1A3dii_Domestic-naviation</t>
-  </si>
-  <si>
     <t>1A4a_Commercial-institutional</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Don't scale prior to 1990 since we do not have consistent driver data at this level</t>
+  </si>
+  <si>
+    <t>1A3dii_Domestic-navigation</t>
   </si>
 </sst>
 </file>
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:F128"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1422,20 +1422,20 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:6">
       <c r="B3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="B4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
         <v>12</v>
@@ -1455,10 +1455,10 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
         <v>10</v>
@@ -1468,7 +1468,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1488,7 +1488,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1508,7 +1508,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="B10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1518,7 +1518,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12" t="s">
         <v>20</v>
@@ -1538,17 +1538,17 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6">
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14" t="s">
         <v>19</v>
@@ -1558,216 +1558,216 @@
     </row>
     <row r="15" spans="1:6">
       <c r="B15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6">
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:6">
       <c r="B20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:6">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:6">
       <c r="B24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:6">
       <c r="B25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="B26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F28" s="2"/>
     </row>
     <row r="29" spans="1:6">
       <c r="B29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6">
       <c r="B30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" t="s">
         <v>59</v>
-      </c>
-      <c r="C31" t="s">
-        <v>60</v>
       </c>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6">
       <c r="B32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F32" s="2"/>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
         <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
       </c>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6">
       <c r="B36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C36" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F36" s="2"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -1776,7 +1776,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
         <v>22</v>
@@ -1786,31 +1786,31 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C39" t="s">
-        <v>23</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:6">
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1823,13 +1823,13 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
@@ -1837,10 +1837,10 @@
     </row>
     <row r="44" spans="1:6">
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
@@ -1848,10 +1848,10 @@
     </row>
     <row r="45" spans="1:6">
       <c r="B45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C45" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
@@ -1864,13 +1864,13 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="1"/>
@@ -1878,10 +1878,10 @@
     </row>
     <row r="48" spans="1:6">
       <c r="B48" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B49" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="1"/>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2"/>
@@ -1924,23 +1924,23 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6">
       <c r="B54" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C54" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2"/>
@@ -1952,23 +1952,23 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B56" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="4"/>
       <c r="B57" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -1976,10 +1976,10 @@
     <row r="58" spans="1:6">
       <c r="A58" s="4"/>
       <c r="B58" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="60" spans="1:6">
       <c r="C60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2002,7 +2002,7 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
@@ -2014,7 +2014,7 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C64" s="2"/>
       <c r="E64" s="2"/>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="4"/>
       <c r="E65" s="2"/>
@@ -2287,7 +2287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
@@ -2306,7 +2306,7 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2318,2147 +2318,2147 @@
         <v>1</v>
       </c>
       <c r="G1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>1970</v>
       </c>
       <c r="D2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C3">
         <v>1970</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C4">
         <v>1980</v>
       </c>
       <c r="D4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5">
         <v>1980</v>
       </c>
       <c r="D5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C6">
         <v>1970</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C7">
         <v>1970</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F7" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1980</v>
       </c>
       <c r="D8" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C9">
         <v>1980</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C10">
         <v>1970</v>
       </c>
       <c r="D10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F10" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C11">
         <v>1970</v>
       </c>
       <c r="D11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C12">
         <v>1980</v>
       </c>
       <c r="D12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C13">
         <v>1980</v>
       </c>
       <c r="D13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14">
         <v>1970</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C15">
         <v>1970</v>
       </c>
       <c r="D15" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C16">
         <v>1980</v>
       </c>
       <c r="D16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C17">
         <v>1980</v>
       </c>
       <c r="D17" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C18">
         <v>1970</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C19">
         <v>1970</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20">
         <v>1980</v>
       </c>
       <c r="D20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C21">
         <v>1980</v>
       </c>
       <c r="D21" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E21" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F21" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22">
         <v>1970</v>
       </c>
       <c r="D22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C23">
         <v>1970</v>
       </c>
       <c r="D23" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E23" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C24">
         <v>1980</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>1980</v>
       </c>
       <c r="D25" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26">
         <v>1970</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F26" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C27">
         <v>1970</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C28">
         <v>1990</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E28" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C29">
         <v>1990</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30">
         <v>1970</v>
       </c>
       <c r="D30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E30" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C31">
         <v>1970</v>
       </c>
       <c r="D31" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C32">
         <v>1980</v>
       </c>
       <c r="D32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E32" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>1980</v>
       </c>
       <c r="D33" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F33" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C34">
         <v>1970</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E34" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C35">
         <v>1970</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F35" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C36">
         <v>1980</v>
       </c>
       <c r="D36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C37">
         <v>1980</v>
       </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F37" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38">
         <v>1970</v>
       </c>
       <c r="D38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F38" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>1970</v>
       </c>
       <c r="D39" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E39" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F39" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C40">
         <v>1970</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C41">
         <v>1970</v>
       </c>
       <c r="D41" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F41" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C42">
         <v>1980</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>1980</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F43" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44">
         <v>1970</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45">
         <v>1970</v>
       </c>
       <c r="D45" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E45" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C46">
         <v>1980</v>
       </c>
       <c r="D46" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E46" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C47">
         <v>1980</v>
       </c>
       <c r="D47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E47" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F47" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B48" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C48">
         <v>1970</v>
       </c>
       <c r="D48" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>1970</v>
       </c>
       <c r="D49" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B50" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C50">
         <v>1980</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F50" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C51">
         <v>1980</v>
       </c>
       <c r="D51" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E51" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C52">
         <v>1970</v>
       </c>
       <c r="D52" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E52" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53">
         <v>1970</v>
       </c>
       <c r="D53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E53" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F53" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C54">
         <v>1980</v>
       </c>
       <c r="D54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E54" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F54" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <v>1980</v>
       </c>
       <c r="D55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F55" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B56" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C56">
         <v>1970</v>
       </c>
       <c r="D56" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E56" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F56" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B57" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C57">
         <v>1970</v>
       </c>
       <c r="D57" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E57" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F57" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>1980</v>
       </c>
       <c r="D58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E58" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C59">
         <v>1980</v>
       </c>
       <c r="D59" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E59" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F59" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C60">
         <v>1980</v>
       </c>
       <c r="D60" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F60" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>1970</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F61" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C62">
         <v>1970</v>
       </c>
       <c r="D62" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E62" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F62" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B63" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C63">
         <v>1980</v>
       </c>
       <c r="D63" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F63" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C64">
         <v>1980</v>
       </c>
       <c r="D64" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F64" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C65">
         <v>1970</v>
       </c>
       <c r="D65" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F65" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C66">
         <v>1970</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E66" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C67">
         <v>1980</v>
       </c>
       <c r="D67" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F67" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C68">
         <v>1980</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F68" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C70">
         <v>1980</v>
       </c>
       <c r="D70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E70" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C71">
         <v>1980</v>
       </c>
       <c r="D71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E71" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F71" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B72" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C72">
         <v>1990</v>
       </c>
       <c r="D72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E72" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F72" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C73">
         <v>1990</v>
       </c>
       <c r="D73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E73" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F73" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C74">
         <v>1980</v>
       </c>
       <c r="D74" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E74" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F74" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C75">
         <v>1980</v>
       </c>
       <c r="D75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E75" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C76">
         <v>1990</v>
       </c>
       <c r="D76" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B77" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C77">
         <v>1990</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E77" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C78">
         <v>1980</v>
       </c>
       <c r="D78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F78" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="1:6">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C79">
         <v>1980</v>
       </c>
       <c r="D79" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="80" spans="1:6">
       <c r="A80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C80">
         <v>1990</v>
       </c>
       <c r="D80" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E80" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B81" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C81">
         <v>1990</v>
       </c>
       <c r="D81" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E81" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F81" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="82" spans="1:6">
       <c r="A82" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C82">
         <v>1980</v>
       </c>
       <c r="D82" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E82" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F82" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:6">
       <c r="A83" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C83">
         <v>1980</v>
       </c>
       <c r="D83" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F83" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:6">
       <c r="A84" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B84" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C84">
         <v>1990</v>
       </c>
       <c r="D84" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E84" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F84" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C85">
         <v>1990</v>
       </c>
       <c r="D85" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E85" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F85" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:6">
       <c r="A87" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B87" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C87">
         <v>1990</v>
       </c>
       <c r="D87" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E87" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F87" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B88" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C88">
         <v>1990</v>
       </c>
       <c r="D88" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E88" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F88" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B89" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C89">
         <v>1990</v>
       </c>
       <c r="D89" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E89" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F89" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="90" spans="1:6">
       <c r="A90" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C90">
         <v>1990</v>
       </c>
       <c r="D90" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E90" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F90" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B91" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C91">
         <v>1990</v>
       </c>
       <c r="D91" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E91" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F91" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="92" spans="1:6">
       <c r="A92" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B92" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C92">
         <v>1990</v>
       </c>
       <c r="D92" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E92" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F92" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:6">
       <c r="A93" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B93" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C93">
         <v>1990</v>
       </c>
       <c r="D93" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E93" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F93" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:6">
       <c r="A94" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B94" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C94">
         <v>1990</v>
       </c>
       <c r="D94" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E94" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F94" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="96" spans="1:6">
       <c r="A96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C96">
         <v>1990</v>
       </c>
       <c r="D96" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E96" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F96" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:6">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B97" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C97">
         <v>1990</v>
       </c>
       <c r="D97" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F97" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="98" spans="1:6">
       <c r="A98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B98" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C98">
         <v>1990</v>
       </c>
       <c r="D98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E98" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F98" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:6">
       <c r="A99" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B99" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C99">
         <v>1990</v>
       </c>
       <c r="D99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F99" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C100">
         <v>1990</v>
       </c>
       <c r="D100" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F100" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B101" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C101">
         <v>1990</v>
       </c>
       <c r="D101" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E101" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:6">
       <c r="A102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C102">
         <v>1990</v>
       </c>
       <c r="D102" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E102" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F102" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C103">
         <v>1990</v>
       </c>
       <c r="D103" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E103" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F103" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B104" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C104">
         <v>1990</v>
       </c>
       <c r="D104" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E104" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F104" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="105" spans="1:6">
       <c r="A105" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B105" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C105">
         <v>1990</v>
       </c>
       <c r="D105" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E105" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F105" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B106" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C106">
         <v>1990</v>
       </c>
       <c r="D106" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E106" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F106" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="107" spans="1:6">
       <c r="A107" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B107" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C107">
         <v>1990</v>
       </c>
       <c r="D107" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E107" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F107" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="108" spans="1:6">
       <c r="A108" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B108" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C108">
         <v>1990</v>
       </c>
       <c r="D108" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E108" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F108" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:6">
       <c r="A109" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B109" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C109">
         <v>1990</v>
       </c>
       <c r="D109" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E109" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F109" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:6">
       <c r="A110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C110">
         <v>1990</v>
       </c>
       <c r="D110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E110" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F110" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="111" spans="1:6">
       <c r="A111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B111" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C111">
         <v>1990</v>
       </c>
       <c r="D111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E111" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F111" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -4476,8 +4476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4496,24 +4496,24 @@
         <v>6</v>
       </c>
       <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
         <v>89</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>90</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>91</v>
-      </c>
-      <c r="H1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" t="s">
         <v>93</v>
-      </c>
-      <c r="B2" t="s">
-        <v>94</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -4531,15 +4531,15 @@
         <v>2012</v>
       </c>
       <c r="H2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
@@ -4560,15 +4560,15 @@
         <v>7</v>
       </c>
       <c r="I3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
@@ -4589,15 +4589,15 @@
         <v>7</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
@@ -4615,7 +4615,7 @@
         <v>2020</v>
       </c>
       <c r="H5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
+++ b/input/mappings/scaling/EMEP_NFR09_scaling_mapping_SO2.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26929"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="14400" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13940" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="132">
   <si>
     <t>pre_ext_method</t>
   </si>
@@ -472,8 +472,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="289">
+  <cellStyleXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -770,7 +772,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="289">
+  <cellStyles count="291">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -915,6 +917,7 @@
     <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1059,6 +1062,7 @@
     <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2274,7 +2278,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2287,7 +2290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
@@ -4463,7 +4466,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -4474,15 +4476,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -4534,7 +4536,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>99</v>
       </c>
@@ -4557,13 +4559,10 @@
         <v>2020</v>
       </c>
       <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>101</v>
       </c>
@@ -4586,13 +4585,10 @@
         <v>2020</v>
       </c>
       <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>129</v>
       </c>
